--- a/sem5/VPO/Lab-4/calc.xlsx
+++ b/sem5/VPO/Lab-4/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\BSUIR\sem5\VPO\Lab-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F5C43C-E226-488C-B2C8-BBF1FE519762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7CE40-6D82-445A-AF49-4E00E82EA39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08323BB2-9C62-4420-A406-E2DB87689AC7}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <t>Цифра 9 не активна</t>
   </si>
   <si>
-    <t>Открыть программу
-и попробовать нажать 9</t>
-  </si>
-  <si>
     <t>Всегда</t>
   </si>
   <si>
@@ -71,10 +67,6 @@
     <t>нет</t>
   </si>
   <si>
-    <t>Цифра 2 визуально
- больше</t>
-  </si>
-  <si>
     <t>Открыть программу</t>
   </si>
   <si>
@@ -84,22 +76,10 @@
     <t>Косметический дефект</t>
   </si>
   <si>
-    <t>При нажатии в любую область кроме кнопок
-возникает исключение</t>
-  </si>
-  <si>
-    <t>Нажать в любое
- место между кнопок</t>
-  </si>
-  <si>
     <t>major</t>
   </si>
   <si>
     <t>Крах системы</t>
-  </si>
-  <si>
-    <t>При выборе инженерного
-калькулятора ничего не меняется(только увеличивается окно)</t>
   </si>
   <si>
     <t>Зайти в меню выбор,
@@ -110,10 +90,6 @@
 функциональность</t>
   </si>
   <si>
-    <t>Поле за кнопками цифр становится
-красным</t>
-  </si>
-  <si>
     <t>Зайти в меню выбор,
 выбрать инженерный калькулятор, после снова выбрать обычный</t>
   </si>
@@ -164,6 +140,24 @@
   </si>
   <si>
     <t>Отнять 777 от 777, в результате получается -15, ожидаемый 0</t>
+  </si>
+  <si>
+    <t>Цифра 2 визуально больше</t>
+  </si>
+  <si>
+    <t>При нажатии в любую область кроме кнопок возникает исключение</t>
+  </si>
+  <si>
+    <t>При выборе инженерного калькулятора ничего не меняется (только увеличивается окно)</t>
+  </si>
+  <si>
+    <t>Поле за кнопками цифр становится красным</t>
+  </si>
+  <si>
+    <t>Открыть программу и попробовать нажать 9</t>
+  </si>
+  <si>
+    <t>Нажать в любое место между кнопок</t>
   </si>
 </sst>
 </file>
@@ -521,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA56E3-B03F-42B6-BCF6-4FEA0D011FE3}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -574,22 +568,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -597,25 +591,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -623,25 +617,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -649,25 +643,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -675,25 +669,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -701,25 +695,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -727,25 +721,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -753,25 +747,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
